--- a/biology/Zoologie/Anaea_archidona/Anaea_archidona.xlsx
+++ b/biology/Zoologie/Anaea_archidona/Anaea_archidona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anaea archidona est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Charaxinae et du genre Anaea.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand papillon aux ailes antérieures pointues au dessus orange marqué de marron à l'apex.
 Son revers est beige doré, semblable à une feuille morte.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plante hôte
-Sa plante-hôte est le Casearia une Flacourtiaceae[1].
+          <t>Plante hôte</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante-hôte est le Casearia une Flacourtiaceae.
 </t>
         </is>
       </c>
@@ -575,11 +594,11 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le nord de l'Amérique du Sud, en Équateur, Colombie, Bolivie et au Pérou[2].
-Biotope
-Il réside dans la forêt jusqu'à 600 m[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le nord de l'Amérique du Sud, en Équateur, Colombie, Bolivie et au Pérou.
 </t>
         </is>
       </c>
@@ -605,15 +624,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Systématique</t>
+          <t>Écologie et distribution</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Décrite en 1860 par William Chapman Hewitson sous le nom de Siderone archidona, le genre est déplacé par  C. &amp; R. Felder, 1862 vers Coenophlebia. 
-Synonymie
-Siderone archidona Hewitson, 1860 Protonyme[4]
-Anaea archidona</t>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt jusqu'à 600 m
+</t>
         </is>
       </c>
     </row>
@@ -638,10 +661,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrite en 1860 par William Chapman Hewitson sous le nom de Siderone archidona, le genre est déplacé par  C. &amp; R. Felder, 1862 vers Coenophlebia. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anaea_archidona</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anaea_archidona</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Siderone archidona Hewitson, 1860 Protonyme
+Anaea archidona</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anaea_archidona</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anaea_archidona</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
